--- a/classfiers/chain/elm/chain_elm_tanh_results.xlsx
+++ b/classfiers/chain/elm/chain_elm_tanh_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9742489270386266</v>
+        <v>0.9248826291079812</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4397944199706314</v>
+        <v>0.5678934010152284</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9871244635193133</v>
+        <v>0.9483568075117371</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1082251082251082</v>
+        <v>0.6152709359605911</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9292452830188679</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.5460236886632825</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9827586206896551</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.1428571428571429</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8034934497816594</v>
+        <v>0.6952970297029702</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9827586206896551</v>
+        <v>0.9433962264150944</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7081513828238718</v>
+        <v>0.49875</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9836613881900252</v>
+        <v>0.937855434493755</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.045</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.06857142857142857</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4664783267057087</v>
+        <v>0.5846470110684144</v>
       </c>
     </row>
   </sheetData>
